--- a/Data.xlsx
+++ b/Data.xlsx
@@ -96,6 +96,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7428140603902525E-3"/>
+                  <c:y val="-0.37582801169207425"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$28</c:f>
@@ -253,11 +267,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="218253568"/>
-        <c:axId val="211015552"/>
+        <c:axId val="68187264"/>
+        <c:axId val="68188800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="218253568"/>
+        <c:axId val="68187264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="15"/>
@@ -265,12 +279,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211015552"/>
+        <c:crossAx val="68188800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211015552"/>
+        <c:axId val="68188800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10000"/>
@@ -279,20 +293,16 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218253568"/>
+        <c:crossAx val="68187264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -407,6 +417,20 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.2518372703412075E-2"/>
+                  <c:y val="-0.25324383046549487"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$6:$G$21</c:f>
@@ -522,11 +546,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="212551552"/>
-        <c:axId val="212550016"/>
+        <c:axId val="68217472"/>
+        <c:axId val="68563328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="212551552"/>
+        <c:axId val="68217472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -534,12 +558,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212550016"/>
+        <c:crossAx val="68563328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="212550016"/>
+        <c:axId val="68563328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10000"/>
@@ -548,7 +572,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212551552"/>
+        <c:crossAx val="68217472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -557,7 +581,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -913,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:K28"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:I21"/>
+    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1290,6 +1314,10 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
+      <c r="I23">
+        <f>AVERAGE(I6:I22)</f>
+        <v>15662.5</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
@@ -1344,6 +1372,12 @@
       </c>
       <c r="E28" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="C29">
+        <f>AVERAGE(C6:C28)</f>
+        <v>15756.521739130434</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -78,9 +78,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-CA"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -103,8 +101,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7428140603902525E-3"/>
-                  <c:y val="-0.37582801169207425"/>
+                  <c:x val="5.9700961870818872E-2"/>
+                  <c:y val="-0.5427418781709491"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -267,42 +265,118 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68187264"/>
-        <c:axId val="68188800"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26.565217391304348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15756.521739130434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="76118272"/>
+        <c:axId val="76128256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68187264"/>
+        <c:axId val="76118272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="15"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age (years)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68188800"/>
+        <c:crossAx val="76128256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68188800"/>
+        <c:axId val="76128256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10000"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maximum Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68187264"/>
+        <c:crossAx val="76118272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -312,106 +386,17 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-CA"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Headphones</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$6:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$H$6:$H$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:tx>
+            <c:v>Headphones</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575">
               <a:noFill/>
@@ -424,8 +409,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.2518372703412075E-2"/>
-                  <c:y val="-0.25324383046549487"/>
+                  <c:x val="3.2518372703412082E-2"/>
+                  <c:y val="-0.24154792133994599"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -546,42 +531,118 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="68217472"/>
-        <c:axId val="68563328"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23.4375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15662.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="76496896"/>
+        <c:axId val="76498432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68217472"/>
+        <c:axId val="76496896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age (years)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68563328"/>
+        <c:crossAx val="76498432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68563328"/>
+        <c:axId val="76498432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10000"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maximum Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68217472"/>
+        <c:crossAx val="76496896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -622,15 +683,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -939,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="P21" workbookViewId="0">
+      <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1303,6 +1364,14 @@
       <c r="E22" t="b">
         <v>1</v>
       </c>
+      <c r="G22">
+        <f>AVERAGE(G6:G21)</f>
+        <v>23.4375</v>
+      </c>
+      <c r="I22">
+        <f ca="1">AVERAGE(I6:I22)</f>
+        <v>15662.5</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
@@ -1314,10 +1383,6 @@
       <c r="E23" t="b">
         <v>1</v>
       </c>
-      <c r="I23">
-        <f>AVERAGE(I6:I22)</f>
-        <v>15662.5</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
@@ -1375,6 +1440,10 @@
       </c>
     </row>
     <row r="29" spans="1:11">
+      <c r="A29">
+        <f>AVERAGE(A6:A28)</f>
+        <v>26.565217391304348</v>
+      </c>
       <c r="C29">
         <f>AVERAGE(C6:C28)</f>
         <v>15756.521739130434</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -76,11 +76,21 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14234473894246033"/>
+          <c:y val="3.2534848712791969E-2"/>
+          <c:w val="0.8234327315148916"/>
+          <c:h val="0.82162249219866923"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -101,11 +111,21 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.9700961870818872E-2"/>
-                  <c:y val="-0.5427418781709491"/>
+                  <c:x val="5.7571036775420865E-2"/>
+                  <c:y val="-0.5602569155185797"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-CA"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -301,11 +321,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76118272"/>
-        <c:axId val="76128256"/>
+        <c:axId val="53112192"/>
+        <c:axId val="53122560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76118272"/>
+        <c:axId val="53112192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="15"/>
@@ -318,7 +338,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-CA"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -327,16 +347,33 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.82394911256754755"/>
+              <c:y val="0.92296572398471932"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76128256"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-CA"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53122560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76128256"/>
+        <c:axId val="53122560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10000"/>
@@ -350,7 +387,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-CA"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -363,7 +400,17 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76118272"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-CA"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53112192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -371,12 +418,22 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-CA"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -384,11 +441,21 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14077065011423334"/>
+          <c:y val="3.450666568776805E-2"/>
+          <c:w val="0.8253852628610997"/>
+          <c:h val="0.80148768117272062"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -409,11 +476,21 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.2518372703412082E-2"/>
-                  <c:y val="-0.24154792133994599"/>
+                  <c:x val="3.1542502684794735E-2"/>
+                  <c:y val="-0.22891850936933536"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="en-CA"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -567,11 +644,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76496896"/>
-        <c:axId val="76498432"/>
+        <c:axId val="53147520"/>
+        <c:axId val="53833728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76496896"/>
+        <c:axId val="53147520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -584,7 +661,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-CA"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -593,16 +670,33 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.84353688016486095"/>
+              <c:y val="0.91918824832210666"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76498432"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-CA"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53833728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76498432"/>
+        <c:axId val="53833728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10000"/>
@@ -616,7 +710,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-CA"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -629,20 +723,49 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76496896"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-CA"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="53147520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17447492049275831"/>
+          <c:y val="0.92248566831243994"/>
+          <c:w val="0.60892255766607373"/>
+          <c:h val="5.2528433945756778E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-CA"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -690,8 +813,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1000,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D24" workbookViewId="0">
       <selection activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
